--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H2">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I2">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J2">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N2">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O2">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P2">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q2">
-        <v>0.3859745726730001</v>
+        <v>0.119216074176</v>
       </c>
       <c r="R2">
-        <v>1.543898290692</v>
+        <v>0.476864296704</v>
       </c>
       <c r="S2">
-        <v>0.005978748398744319</v>
+        <v>0.002754312787574162</v>
       </c>
       <c r="T2">
-        <v>0.003472108042033636</v>
+        <v>0.001551315911137813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H3">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I3">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J3">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P3">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q3">
-        <v>1.070749949037</v>
+        <v>0.5994341898960001</v>
       </c>
       <c r="R3">
-        <v>6.424499694222</v>
+        <v>3.596605139376</v>
       </c>
       <c r="S3">
-        <v>0.01658592300245675</v>
+        <v>0.01384904901416464</v>
       </c>
       <c r="T3">
-        <v>0.01444820373779459</v>
+        <v>0.01170033239510342</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H4">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I4">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J4">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N4">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O4">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P4">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q4">
-        <v>0.1455190642965</v>
+        <v>0.16333871192</v>
       </c>
       <c r="R4">
-        <v>0.873114385779</v>
+        <v>0.9800322715199999</v>
       </c>
       <c r="S4">
-        <v>0.002254091161042773</v>
+        <v>0.003773701709745756</v>
       </c>
       <c r="T4">
-        <v>0.001963566835170039</v>
+        <v>0.003188201898833321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H5">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I5">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J5">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N5">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O5">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P5">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q5">
-        <v>1.3357007542305</v>
+        <v>0.7013620048259999</v>
       </c>
       <c r="R5">
-        <v>5.342803016922001</v>
+        <v>2.805448019303999</v>
       </c>
       <c r="S5">
-        <v>0.02069001253179135</v>
+        <v>0.01620394189259251</v>
       </c>
       <c r="T5">
-        <v>0.01201555143489516</v>
+        <v>0.009126571606005182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H6">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I6">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J6">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N6">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O6">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P6">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q6">
-        <v>0.0921627718285</v>
+        <v>0.053252859132</v>
       </c>
       <c r="R6">
-        <v>0.5529766309709999</v>
+        <v>0.319517154792</v>
       </c>
       <c r="S6">
-        <v>0.001427601877184558</v>
+        <v>0.001230329315035279</v>
       </c>
       <c r="T6">
-        <v>0.001243601744380779</v>
+        <v>0.001039440464585646</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H7">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I7">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J7">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N7">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O7">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P7">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q7">
-        <v>0.085794869526</v>
+        <v>0.206468480892</v>
       </c>
       <c r="R7">
-        <v>0.514769217156</v>
+        <v>1.238810885352</v>
       </c>
       <c r="S7">
-        <v>0.001328963033100165</v>
+        <v>0.004770151853115885</v>
       </c>
       <c r="T7">
-        <v>0.001157676220936545</v>
+        <v>0.004030050164418524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.132793</v>
       </c>
       <c r="I8">
-        <v>0.1488760074540974</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J8">
-        <v>0.1587024703968609</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N8">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O8">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P8">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q8">
-        <v>1.190551094288667</v>
+        <v>0.656856817808</v>
       </c>
       <c r="R8">
-        <v>7.143306565732001</v>
+        <v>3.941140906848</v>
       </c>
       <c r="S8">
-        <v>0.01844164344637303</v>
+        <v>0.01517571472973452</v>
       </c>
       <c r="T8">
-        <v>0.0160647448883909</v>
+        <v>0.01282116241263597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.132793</v>
       </c>
       <c r="I9">
-        <v>0.1488760074540974</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J9">
-        <v>0.1587024703968609</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P9">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q9">
         <v>3.302762963651334</v>
@@ -1013,10 +1013,10 @@
         <v>29.724866672862</v>
       </c>
       <c r="S9">
-        <v>0.0511598177144475</v>
+        <v>0.07630550098203566</v>
       </c>
       <c r="T9">
-        <v>0.06684892991037789</v>
+        <v>0.09669975073576131</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>1.132793</v>
       </c>
       <c r="I10">
-        <v>0.1488760074540974</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J10">
-        <v>0.1587024703968609</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N10">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O10">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P10">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q10">
-        <v>0.4488582759176666</v>
+        <v>0.8999637614155556</v>
       </c>
       <c r="R10">
-        <v>4.039724483259</v>
+        <v>8.099673852739999</v>
       </c>
       <c r="S10">
-        <v>0.006952817331517471</v>
+        <v>0.0207923446024632</v>
       </c>
       <c r="T10">
-        <v>0.009085028431268556</v>
+        <v>0.02634953593638808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.132793</v>
       </c>
       <c r="I11">
-        <v>0.1488760074540974</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J11">
-        <v>0.1587024703968609</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N11">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O11">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P11">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q11">
-        <v>4.120012319927</v>
+        <v>3.864364917278833</v>
       </c>
       <c r="R11">
-        <v>24.720073919562</v>
+        <v>23.186189503673</v>
       </c>
       <c r="S11">
-        <v>0.06381901504542692</v>
+        <v>0.08928049158707148</v>
       </c>
       <c r="T11">
-        <v>0.05559353745855009</v>
+        <v>0.07542838695267487</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.132793</v>
       </c>
       <c r="I12">
-        <v>0.1488760074540974</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J12">
-        <v>0.1587024703968609</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N12">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O12">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P12">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q12">
-        <v>0.2842790603878889</v>
+        <v>0.293412644481</v>
       </c>
       <c r="R12">
-        <v>2.558511543491</v>
+        <v>2.640713800329</v>
       </c>
       <c r="S12">
-        <v>0.004403484315871163</v>
+        <v>0.00677886941266736</v>
       </c>
       <c r="T12">
-        <v>0.005753894903147598</v>
+        <v>0.008590664814972332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.132793</v>
       </c>
       <c r="I13">
-        <v>0.1488760074540974</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J13">
-        <v>0.1587024703968609</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N13">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O13">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P13">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q13">
-        <v>0.2646370590973333</v>
+        <v>1.137600195894334</v>
       </c>
       <c r="R13">
-        <v>2.381733531876</v>
+        <v>10.238401763049</v>
       </c>
       <c r="S13">
-        <v>0.004099229600461363</v>
+        <v>0.02628258637398929</v>
       </c>
       <c r="T13">
-        <v>0.005356334805125828</v>
+        <v>0.03330716027477786</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7251326666666668</v>
+        <v>0.079682</v>
       </c>
       <c r="H14">
-        <v>2.175398</v>
+        <v>0.239046</v>
       </c>
       <c r="I14">
-        <v>0.2858991615093214</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J14">
-        <v>0.3047697476029517</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N14">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O14">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P14">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q14">
-        <v>2.286315742958667</v>
+        <v>0.138612257376</v>
       </c>
       <c r="R14">
-        <v>13.717894457752</v>
+        <v>0.831673544256</v>
       </c>
       <c r="S14">
-        <v>0.03541504429313476</v>
+        <v>0.00320243319236976</v>
       </c>
       <c r="T14">
-        <v>0.03085048539381493</v>
+        <v>0.002705567204326808</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7251326666666668</v>
+        <v>0.079682</v>
       </c>
       <c r="H15">
-        <v>2.175398</v>
+        <v>0.239046</v>
       </c>
       <c r="I15">
-        <v>0.2858991615093214</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J15">
-        <v>0.3047697476029517</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P15">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q15">
-        <v>6.342574455881334</v>
+        <v>0.6969607645960001</v>
       </c>
       <c r="R15">
-        <v>57.08317010293201</v>
+        <v>6.272646881364</v>
       </c>
       <c r="S15">
-        <v>0.09824651559143963</v>
+        <v>0.01610225768322341</v>
       </c>
       <c r="T15">
-        <v>0.1283756418243901</v>
+        <v>0.02040592466088756</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7251326666666668</v>
+        <v>0.079682</v>
       </c>
       <c r="H16">
-        <v>2.175398</v>
+        <v>0.239046</v>
       </c>
       <c r="I16">
-        <v>0.2858991615093214</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J16">
-        <v>0.3047697476029517</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N16">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O16">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P16">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q16">
-        <v>0.8619804286526667</v>
+        <v>0.1899135475866667</v>
       </c>
       <c r="R16">
-        <v>7.757823857874001</v>
+        <v>1.70922192828</v>
       </c>
       <c r="S16">
-        <v>0.01335208190494508</v>
+        <v>0.004387674365784763</v>
       </c>
       <c r="T16">
-        <v>0.01744674682781829</v>
+        <v>0.005560372607749009</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7251326666666668</v>
+        <v>0.079682</v>
       </c>
       <c r="H17">
-        <v>2.175398</v>
+        <v>0.239046</v>
       </c>
       <c r="I17">
-        <v>0.2858991615093214</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J17">
-        <v>0.3047697476029517</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N17">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O17">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P17">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q17">
-        <v>7.912007366522001</v>
+        <v>0.8154720024009999</v>
       </c>
       <c r="R17">
-        <v>47.47204419913201</v>
+        <v>4.892832014406</v>
       </c>
       <c r="S17">
-        <v>0.1225570405994667</v>
+        <v>0.01884028625876315</v>
       </c>
       <c r="T17">
-        <v>0.1067609617999537</v>
+        <v>0.01591716596720594</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7251326666666668</v>
+        <v>0.079682</v>
       </c>
       <c r="H18">
-        <v>2.175398</v>
+        <v>0.239046</v>
       </c>
       <c r="I18">
-        <v>0.2858991615093214</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J18">
-        <v>0.3047697476029517</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N18">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O18">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P18">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q18">
-        <v>0.5459250714028889</v>
+        <v>0.061916977782</v>
       </c>
       <c r="R18">
-        <v>4.913325642626001</v>
+        <v>0.557252800038</v>
       </c>
       <c r="S18">
-        <v>0.008456382563961374</v>
+        <v>0.001430501086800927</v>
       </c>
       <c r="T18">
-        <v>0.01104968998265127</v>
+        <v>0.001812832584028923</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7251326666666668</v>
+        <v>0.079682</v>
       </c>
       <c r="H19">
-        <v>2.175398</v>
+        <v>0.239046</v>
       </c>
       <c r="I19">
-        <v>0.2858991615093214</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J19">
-        <v>0.3047697476029517</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N19">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O19">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P19">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q19">
-        <v>0.5082048786373334</v>
+        <v>0.240060431542</v>
       </c>
       <c r="R19">
-        <v>4.573843907736001</v>
+        <v>2.160543883878</v>
       </c>
       <c r="S19">
-        <v>0.00787209655637389</v>
+        <v>0.005546244673436933</v>
       </c>
       <c r="T19">
-        <v>0.01028622177432339</v>
+        <v>0.00702859519351245</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.348712</v>
+        <v>0.2857985</v>
       </c>
       <c r="H20">
-        <v>0.697424</v>
+        <v>0.571597</v>
       </c>
       <c r="I20">
-        <v>0.1374872116388428</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J20">
-        <v>0.09770797640350913</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N20">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O20">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P20">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q20">
-        <v>1.099475684944</v>
+        <v>0.497165925048</v>
       </c>
       <c r="R20">
-        <v>4.397902739776001</v>
+        <v>1.988663700192</v>
       </c>
       <c r="S20">
-        <v>0.01703088482045255</v>
+        <v>0.01148629053901118</v>
       </c>
       <c r="T20">
-        <v>0.009890543673063953</v>
+        <v>0.006469441435086095</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.348712</v>
+        <v>0.2857985</v>
       </c>
       <c r="H21">
-        <v>0.697424</v>
+        <v>0.571597</v>
       </c>
       <c r="I21">
-        <v>0.1374872116388428</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J21">
-        <v>0.09770797640350913</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.240334</v>
       </c>
       <c r="O21">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P21">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q21">
-        <v>3.050106449936</v>
+        <v>2.499816032233</v>
       </c>
       <c r="R21">
-        <v>18.300638699616</v>
+        <v>14.998896193398</v>
       </c>
       <c r="S21">
-        <v>0.04724616683235265</v>
+        <v>0.0577545881438559</v>
       </c>
       <c r="T21">
-        <v>0.04115672333234351</v>
+        <v>0.04879381089158298</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.348712</v>
+        <v>0.2857985</v>
       </c>
       <c r="H22">
-        <v>0.697424</v>
+        <v>0.571597</v>
       </c>
       <c r="I22">
-        <v>0.1374872116388428</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J22">
-        <v>0.09770797640350913</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N22">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O22">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P22">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q22">
-        <v>0.414521277352</v>
+        <v>0.6811702395766667</v>
       </c>
       <c r="R22">
-        <v>2.487127664112</v>
+        <v>4.08702143746</v>
       </c>
       <c r="S22">
-        <v>0.006420937021966382</v>
+        <v>0.01573744072977255</v>
       </c>
       <c r="T22">
-        <v>0.005593358070405664</v>
+        <v>0.01329573513663274</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.348712</v>
+        <v>0.2857985</v>
       </c>
       <c r="H23">
-        <v>0.697424</v>
+        <v>0.571597</v>
       </c>
       <c r="I23">
-        <v>0.1374872116388428</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J23">
-        <v>0.09770797640350913</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N23">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O23">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P23">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q23">
-        <v>3.804837431304001</v>
+        <v>2.92488485577925</v>
       </c>
       <c r="R23">
-        <v>15.219349725216</v>
+        <v>11.699539423117</v>
       </c>
       <c r="S23">
-        <v>0.05893695416864577</v>
+        <v>0.06757518074753548</v>
       </c>
       <c r="T23">
-        <v>0.03422714235389152</v>
+        <v>0.03806047503558736</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.348712</v>
+        <v>0.2857985</v>
       </c>
       <c r="H24">
-        <v>0.697424</v>
+        <v>0.571597</v>
       </c>
       <c r="I24">
-        <v>0.1374872116388428</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J24">
-        <v>0.09770797640350913</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N24">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O24">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P24">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q24">
-        <v>0.2625321299813334</v>
+        <v>0.2220800102235</v>
       </c>
       <c r="R24">
-        <v>1.575192779888</v>
+        <v>1.332480061341</v>
       </c>
       <c r="S24">
-        <v>0.004066624236085671</v>
+        <v>0.005130833373360039</v>
       </c>
       <c r="T24">
-        <v>0.003542486931798494</v>
+        <v>0.004334770991914445</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.348712</v>
+        <v>0.2857985</v>
       </c>
       <c r="H25">
-        <v>0.697424</v>
+        <v>0.571597</v>
       </c>
       <c r="I25">
-        <v>0.1374872116388428</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J25">
-        <v>0.09770797640350913</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N25">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O25">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P25">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q25">
-        <v>0.244392712928</v>
+        <v>0.8610340007035002</v>
       </c>
       <c r="R25">
-        <v>1.466356277568</v>
+        <v>5.166204004221001</v>
       </c>
       <c r="S25">
-        <v>0.003785644559339834</v>
+        <v>0.01989292949852244</v>
       </c>
       <c r="T25">
-        <v>0.003297722042005976</v>
+        <v>0.01680648882150773</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.218412</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H26">
-        <v>0.655236</v>
+        <v>1.373989</v>
       </c>
       <c r="I26">
-        <v>0.08611363207593355</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J26">
-        <v>0.09179750571636437</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N26">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O26">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P26">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q26">
-        <v>0.6886447363440001</v>
+        <v>0.7967157655839999</v>
       </c>
       <c r="R26">
-        <v>4.131868418064001</v>
+        <v>4.780294593503999</v>
       </c>
       <c r="S26">
-        <v>0.01066711101253952</v>
+        <v>0.01840695087786842</v>
       </c>
       <c r="T26">
-        <v>0.009292253025654024</v>
+        <v>0.01555106371788604</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.218412</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H27">
-        <v>0.655236</v>
+        <v>1.373989</v>
       </c>
       <c r="I27">
-        <v>0.08611363207593355</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J27">
-        <v>0.09179750571636437</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.240334</v>
       </c>
       <c r="O27">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P27">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q27">
-        <v>1.910401276536</v>
+        <v>4.005992252480667</v>
       </c>
       <c r="R27">
-        <v>17.193611488824</v>
+        <v>36.053930272326</v>
       </c>
       <c r="S27">
-        <v>0.02959212699932267</v>
+        <v>0.09255258373666343</v>
       </c>
       <c r="T27">
-        <v>0.03866710461554439</v>
+        <v>0.1172892080138895</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.218412</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H28">
-        <v>0.655236</v>
+        <v>1.373989</v>
       </c>
       <c r="I28">
-        <v>0.08611363207593355</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J28">
-        <v>0.09179750571636437</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N28">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O28">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P28">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q28">
-        <v>0.259630931052</v>
+        <v>1.091585407557778</v>
       </c>
       <c r="R28">
-        <v>2.336678379468</v>
+        <v>9.824268668019998</v>
       </c>
       <c r="S28">
-        <v>0.004021684647622454</v>
+        <v>0.02521948208365854</v>
       </c>
       <c r="T28">
-        <v>0.005255009246341286</v>
+        <v>0.03195991900700473</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.218412</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H29">
-        <v>0.655236</v>
+        <v>1.373989</v>
       </c>
       <c r="I29">
-        <v>0.08611363207593355</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J29">
-        <v>0.09179750571636437</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N29">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O29">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P29">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q29">
-        <v>2.383118886204</v>
+        <v>4.687171344038166</v>
       </c>
       <c r="R29">
-        <v>14.298713317224</v>
+        <v>28.123028064229</v>
       </c>
       <c r="S29">
-        <v>0.03691452555083352</v>
+        <v>0.1082902289784883</v>
       </c>
       <c r="T29">
-        <v>0.03215670216022744</v>
+        <v>0.09148871326069175</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.218412</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H30">
-        <v>0.655236</v>
+        <v>1.373989</v>
       </c>
       <c r="I30">
-        <v>0.08611363207593355</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J30">
-        <v>0.09179750571636437</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N30">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O30">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P30">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q30">
-        <v>0.164434167948</v>
+        <v>0.355886508813</v>
       </c>
       <c r="R30">
-        <v>1.479907511532</v>
+        <v>3.202978579317</v>
       </c>
       <c r="S30">
-        <v>0.002547086227752252</v>
+        <v>0.008222236547578783</v>
       </c>
       <c r="T30">
-        <v>0.003328197720818208</v>
+        <v>0.01041980216902737</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.218412</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H31">
-        <v>0.655236</v>
+        <v>1.373989</v>
       </c>
       <c r="I31">
-        <v>0.08611363207593355</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J31">
-        <v>0.09179750571636437</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N31">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O31">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P31">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q31">
-        <v>0.153072739728</v>
+        <v>1.379819751319667</v>
       </c>
       <c r="R31">
-        <v>1.377654657552</v>
+        <v>12.418377761877</v>
       </c>
       <c r="S31">
-        <v>0.002371097637863142</v>
+        <v>0.03187871444245433</v>
       </c>
       <c r="T31">
-        <v>0.003098238947779009</v>
+        <v>0.04039897124962968</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.7440523333333333</v>
+        <v>0.3398253333333334</v>
       </c>
       <c r="H32">
-        <v>2.232157</v>
+        <v>1.019476</v>
       </c>
       <c r="I32">
-        <v>0.293358647317485</v>
+        <v>0.2111461487806618</v>
       </c>
       <c r="J32">
-        <v>0.3127215918651031</v>
+        <v>0.2278685684845546</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N32">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O32">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P32">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q32">
-        <v>2.345968733011333</v>
+        <v>0.591149275456</v>
       </c>
       <c r="R32">
-        <v>14.075812398068</v>
+        <v>3.546895652736</v>
       </c>
       <c r="S32">
-        <v>0.03633906945957972</v>
+        <v>0.01365763820028092</v>
       </c>
       <c r="T32">
-        <v>0.03165541520457485</v>
+        <v>0.01153861947574223</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.7440523333333333</v>
+        <v>0.3398253333333334</v>
       </c>
       <c r="H33">
-        <v>2.232157</v>
+        <v>1.019476</v>
       </c>
       <c r="I33">
-        <v>0.293358647317485</v>
+        <v>0.2111461487806618</v>
       </c>
       <c r="J33">
-        <v>0.3127215918651031</v>
+        <v>0.2278685684845546</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>26.240334</v>
       </c>
       <c r="O33">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P33">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q33">
-        <v>6.508060580048667</v>
+        <v>2.972376749442667</v>
       </c>
       <c r="R33">
-        <v>58.572545220438</v>
+        <v>26.751390744984</v>
       </c>
       <c r="S33">
-        <v>0.1008098966272108</v>
+        <v>0.06867241139304514</v>
       </c>
       <c r="T33">
-        <v>0.1317251314599926</v>
+        <v>0.08702655743908287</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.7440523333333333</v>
+        <v>0.3398253333333334</v>
       </c>
       <c r="H34">
-        <v>2.232157</v>
+        <v>1.019476</v>
       </c>
       <c r="I34">
-        <v>0.293358647317485</v>
+        <v>0.2111461487806618</v>
       </c>
       <c r="J34">
-        <v>0.3127215918651031</v>
+        <v>0.2278685684845546</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N34">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O34">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P34">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q34">
-        <v>0.8844706337323333</v>
+        <v>0.8099374339644445</v>
       </c>
       <c r="R34">
-        <v>7.960235703591</v>
+        <v>7.28943690568</v>
       </c>
       <c r="S34">
-        <v>0.01370045531378464</v>
+        <v>0.01871241816107689</v>
       </c>
       <c r="T34">
-        <v>0.01790195543939195</v>
+        <v>0.02371370541509805</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.7440523333333333</v>
+        <v>0.3398253333333334</v>
       </c>
       <c r="H35">
-        <v>2.232157</v>
+        <v>1.019476</v>
       </c>
       <c r="I35">
-        <v>0.293358647317485</v>
+        <v>0.2111461487806618</v>
       </c>
       <c r="J35">
-        <v>0.3127215918651031</v>
+        <v>0.2278685684845546</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N35">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O35">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P35">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q35">
-        <v>8.118442063123</v>
+        <v>3.477799817272667</v>
       </c>
       <c r="R35">
-        <v>48.710652378738</v>
+        <v>20.866798903636</v>
       </c>
       <c r="S35">
-        <v>0.1257547152628548</v>
+        <v>0.08034947112245687</v>
       </c>
       <c r="T35">
-        <v>0.1095464959554524</v>
+        <v>0.06788303795747783</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.7440523333333333</v>
+        <v>0.3398253333333334</v>
       </c>
       <c r="H36">
-        <v>2.232157</v>
+        <v>1.019476</v>
       </c>
       <c r="I36">
-        <v>0.293358647317485</v>
+        <v>0.2111461487806618</v>
       </c>
       <c r="J36">
-        <v>0.3127215918651031</v>
+        <v>0.2278685684845546</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N36">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O36">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P36">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q36">
-        <v>0.5601689757954444</v>
+        <v>0.264061615092</v>
       </c>
       <c r="R36">
-        <v>5.041520782159</v>
+        <v>2.376554535828</v>
       </c>
       <c r="S36">
-        <v>0.008677020726701195</v>
+        <v>0.006100756866743059</v>
       </c>
       <c r="T36">
-        <v>0.01133799095273826</v>
+        <v>0.007731312431228594</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.7440523333333333</v>
+        <v>0.3398253333333334</v>
       </c>
       <c r="H37">
-        <v>2.232157</v>
+        <v>1.019476</v>
       </c>
       <c r="I37">
-        <v>0.293358647317485</v>
+        <v>0.2111461487806618</v>
       </c>
       <c r="J37">
-        <v>0.3127215918651031</v>
+        <v>0.2278685684845546</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N37">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O37">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P37">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q37">
-        <v>0.5214646135026667</v>
+        <v>1.023802316318667</v>
       </c>
       <c r="R37">
-        <v>4.693181521524</v>
+        <v>9.214220846868002</v>
       </c>
       <c r="S37">
-        <v>0.008077489927353923</v>
+        <v>0.02365345303705894</v>
       </c>
       <c r="T37">
-        <v>0.01055460285295306</v>
+        <v>0.02997533576592496</v>
       </c>
     </row>
   </sheetData>
